--- a/Project/HTML/FormularioIngresoDatos/EjemploFormularioDatos.xlsx
+++ b/Project/HTML/FormularioIngresoDatos/EjemploFormularioDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\Ciclo3\Programación\Semana2\Sprint2\FormularioIngresoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\PRUEBAS_Project_C3_EDR\Project\HTML\FormularioIngresoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F473CA-81B9-4B14-B3E7-BE2F169C7B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336A6B1-E1AF-4AE7-8B59-2496FD23A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2A98F288-75AD-4DA0-BABD-92D970351B84}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{2A98F288-75AD-4DA0-BABD-92D970351B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="124">
   <si>
     <t>Ecuador</t>
   </si>
@@ -61,12 +68,6 @@
   </si>
   <si>
     <t>KJ661268</t>
-  </si>
-  <si>
-    <t>10,829241</t>
-  </si>
-  <si>
-    <t>-73,692344</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -442,12 +443,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -462,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -482,9 +489,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -498,6 +502,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,48 +834,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053FBBBF-7549-4349-B1DE-2A9C8A8DCF79}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -895,7 +915,7 @@
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -916,7 +936,7 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -954,7 +974,7 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -973,42 +993,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>10829241</v>
+      </c>
+      <c r="B5" s="12">
+        <v>-73692344</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="13">
+        <v>1640</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <v>1640</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1019,7 +1039,7 @@
         <v>-74.072091999999998</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -1028,63 +1048,63 @@
         <v>2554</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-95.712000000000003</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="D7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>259</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>37.090000000000003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-95.712000000000003</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>259</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="J7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1095,34 +1115,34 @@
         <v>-73.606522299999995</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
         <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,72 +1153,72 @@
         <v>-73.606522299999995</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4">
         <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="16">
+        <v>267</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7">
-        <v>267</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="J10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1209,34 +1229,34 @@
         <v>-118.845</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>1279</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1247,34 +1267,34 @@
         <v>-107.3545333333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4">
         <v>2455</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1285,72 +1305,72 @@
         <v>-107.34755</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4">
         <v>2416</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>35.5241333333</v>
+      </c>
+      <c r="B14" s="13">
+        <v>-107.35025</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2421</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>35.5241333333</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-107.35025</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2421</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="J14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>50</v>
+      <c r="L14" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1361,7 +1381,7 @@
         <v>-58.93</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>3</v>
@@ -1370,9 +1390,9 @@
         <v>290</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1382,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1399,7 +1419,7 @@
         <v>-58.93</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -1408,9 +1428,9 @@
         <v>290</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1420,13 +1440,13 @@
         <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1437,7 +1457,7 @@
         <v>-58.93</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
@@ -1446,861 +1466,861 @@
         <v>290</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>4.6833330000000002</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="L19" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="B21" s="8">
+        <v>-74.296999999999997</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2478</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>4.6833330000000002</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="9" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="B29" s="8">
+        <v>-73.721999999999994</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>35.532916666699997</v>
+      </c>
+      <c r="B31" s="8">
+        <v>-107.3494833333</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2416</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>35.826516666700002</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-106.89579999999999</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2276</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>35.532933333300001</v>
+      </c>
+      <c r="B36" s="8">
+        <v>-107.3462666667</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2435</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34.833916666699999</v>
+      </c>
+      <c r="B37" s="8">
+        <v>-108.22508333330001</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2429</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>35.532916666699997</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-107.3503666667</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2420</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="B39" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="E39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="F39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="B21" s="9">
-        <v>-74.296999999999997</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2478</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>4.6159999999999997</v>
-      </c>
-      <c r="B29" s="9">
-        <v>-73.721999999999994</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="9">
-        <v>3118</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>35.532916666699997</v>
-      </c>
-      <c r="B31" s="9">
-        <v>-107.3494833333</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2416</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>35.826516666700002</v>
-      </c>
-      <c r="B32" s="9">
-        <v>-106.89579999999999</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2276</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>35.532933333300001</v>
-      </c>
-      <c r="B36" s="9">
-        <v>-107.3462666667</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2435</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>34.833916666699999</v>
-      </c>
-      <c r="B37" s="9">
-        <v>-108.22508333330001</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="9">
-        <v>2429</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>35.532916666699997</v>
-      </c>
-      <c r="B38" s="9">
-        <v>-107.3503666667</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="9">
-        <v>2420</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Project/HTML/FormularioIngresoDatos/EjemploFormularioDatos.xlsx
+++ b/Project/HTML/FormularioIngresoDatos/EjemploFormularioDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\PRUEBAS_Project_C3_EDR\Project\HTML\FormularioIngresoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\Ciclo3\Programación\Semana2\Sprint2\FormularioIngresoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336A6B1-E1AF-4AE7-8B59-2496FD23A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F473CA-81B9-4B14-B3E7-BE2F169C7B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{2A98F288-75AD-4DA0-BABD-92D970351B84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2A98F288-75AD-4DA0-BABD-92D970351B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
   <si>
     <t>Ecuador</t>
   </si>
@@ -68,6 +61,12 @@
   </si>
   <si>
     <t>KJ661268</t>
+  </si>
+  <si>
+    <t>10,829241</t>
+  </si>
+  <si>
+    <t>-73,692344</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -443,18 +442,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -469,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -489,6 +482,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,22 +498,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,48 +814,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053FBBBF-7549-4349-B1DE-2A9C8A8DCF79}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -915,7 +895,7 @@
       <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -936,7 +916,7 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -974,7 +954,7 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -993,42 +973,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>10829241</v>
-      </c>
-      <c r="B5" s="12">
-        <v>-73692344</v>
-      </c>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
         <v>1640</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>17</v>
+      <c r="L5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1039,7 +1019,7 @@
         <v>-74.072091999999998</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -1048,63 +1028,63 @@
         <v>2554</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>37.090000000000003</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="4">
         <v>-95.712000000000003</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="4">
         <v>259</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>26</v>
+      <c r="L7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,34 +1095,34 @@
         <v>-73.606522299999995</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1153,72 +1133,72 @@
         <v>-73.606522299999995</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4">
         <v>120</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
         <v>267</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="G10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>40</v>
+      <c r="L10" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1229,34 +1209,34 @@
         <v>-118.845</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>1279</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1267,34 +1247,34 @@
         <v>-107.3545333333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4">
         <v>2455</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1305,72 +1285,72 @@
         <v>-107.34755</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>2416</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>35.5241333333</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="4">
         <v>-107.35025</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4">
         <v>2421</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1381,7 +1361,7 @@
         <v>-58.93</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>3</v>
@@ -1390,9 +1370,9 @@
         <v>290</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1402,13 +1382,13 @@
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1419,7 +1399,7 @@
         <v>-58.93</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -1428,9 +1408,9 @@
         <v>290</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1440,13 +1420,13 @@
         <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1457,7 +1437,7 @@
         <v>-58.93</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
@@ -1466,861 +1446,861 @@
         <v>290</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>4.6833330000000002</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="K18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>4.6833330000000002</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="L19" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-74.296999999999997</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2478</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="B29" s="9">
+        <v>-73.721999999999994</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3118</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>35.532916666699997</v>
+      </c>
+      <c r="B31" s="9">
+        <v>-107.3494833333</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2416</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>35.826516666700002</v>
+      </c>
+      <c r="B32" s="9">
+        <v>-106.89579999999999</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2276</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4.6833330000000002</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>4.6166669999999996</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35.532933333300001</v>
+      </c>
+      <c r="B36" s="9">
+        <v>-107.3462666667</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2435</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>34.833916666699999</v>
+      </c>
+      <c r="B37" s="9">
+        <v>-108.22508333330001</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2429</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>35.532916666699997</v>
+      </c>
+      <c r="B38" s="9">
+        <v>-107.3503666667</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2420</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>4.57</v>
-      </c>
-      <c r="B21" s="8">
-        <v>-74.296999999999997</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2478</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>4.6159999999999997</v>
-      </c>
-      <c r="B29" s="8">
-        <v>-73.721999999999994</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="8">
-        <v>3118</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>35.532916666699997</v>
-      </c>
-      <c r="B31" s="8">
-        <v>-107.3494833333</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2416</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>35.826516666700002</v>
-      </c>
-      <c r="B32" s="8">
-        <v>-106.89579999999999</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="8">
-        <v>2276</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>4.6833330000000002</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>4.6166669999999996</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>35.532933333300001</v>
-      </c>
-      <c r="B36" s="8">
-        <v>-107.3462666667</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2435</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>34.833916666699999</v>
-      </c>
-      <c r="B37" s="8">
-        <v>-108.22508333330001</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="8">
-        <v>2429</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>35.532916666699997</v>
-      </c>
-      <c r="B38" s="8">
-        <v>-107.3503666667</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="8">
-        <v>2420</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="L39" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
